--- a/artfynd/A 630-2021.xlsx
+++ b/artfynd/A 630-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16895959</v>
+        <v>16895948</v>
       </c>
       <c r="B2" t="n">
-        <v>77668</v>
+        <v>89406</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1249</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, ca 1 km Ö Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 300 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>462630.2221353759</v>
+        <v>461487.2423814723</v>
       </c>
       <c r="R2" t="n">
-        <v>7164280.166798776</v>
+        <v>7164776.231211329</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -779,15 +779,15 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Storluckig, gammal fjällgranskog på myrholme</t>
+          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>10 substratenheter # grenar och stammar av gammal klonbildande gran</t>
+          <t>1 substratenheter # grov hård granlåga</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16895948</v>
+        <v>16895952</v>
       </c>
       <c r="B3" t="n">
-        <v>89406</v>
+        <v>77668</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,38 +821,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>1249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 300 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 400 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>461487.2423814723</v>
+        <v>461636.9326544968</v>
       </c>
       <c r="R3" t="n">
-        <v>7164776.231211329</v>
+        <v>7164647.242933135</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1 substratenheter # grov hård granlåga</t>
+          <t>5 substratenheter # grenar av senvuxen gammal klonbildande gran</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16895958</v>
+        <v>16895947</v>
       </c>
       <c r="B4" t="n">
         <v>77668</v>
@@ -974,14 +974,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, ca 1 km Ö Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 200 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>462429.0675681746</v>
+        <v>461433.4034202741</v>
       </c>
       <c r="R4" t="n">
-        <v>7164389.574527718</v>
+        <v>7164700.488456889</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1037,15 +1037,15 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Storluckig, gammal fjällgranskog på myrholme</t>
+          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4 substratenheter # grenar och stammar av gammal klonbildande gran</t>
+          <t>3 substratenheter # grenar på mkt grova granar och torrgran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16895952</v>
+        <v>16895956</v>
       </c>
       <c r="B5" t="n">
-        <v>77668</v>
+        <v>89406</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,38 +1079,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1249</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 400 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, ca 400 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>461636.9326544968</v>
+        <v>461898.1476932919</v>
       </c>
       <c r="R5" t="n">
-        <v>7164647.242933135</v>
+        <v>7164702.346384764</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1166,15 +1166,15 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
+          <t>Storluckig gammal, f.d. betad fjällbjörkskog</t>
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5 substratenheter # grenar av senvuxen gammal klonbildande gran</t>
+          <t>1 substratenheter # grov ngt murken granlåga</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16895947</v>
+        <v>16895951</v>
       </c>
       <c r="B6" t="n">
         <v>77668</v>
@@ -1232,14 +1232,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 200 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 400 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>461433.4034202741</v>
+        <v>461560.5512648276</v>
       </c>
       <c r="R6" t="n">
-        <v>7164700.488456889</v>
+        <v>7164760.27418993</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1295,15 +1295,15 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
+          <t>Storluckig gammal, f.d. betad fjällbjörkskog</t>
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3 substratenheter # grenar på mkt grova granar och torrgran</t>
+          <t>1 substratenheter # stammen på äldre sälg</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16895956</v>
+        <v>16895946</v>
       </c>
       <c r="B7" t="n">
-        <v>89406</v>
+        <v>77668</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1337,38 +1337,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>1249</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, ca 400 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 400 m NV Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>461898.1476932919</v>
+        <v>461019.1146955636</v>
       </c>
       <c r="R7" t="n">
-        <v>7164702.346384764</v>
+        <v>7164878.383126226</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Storluckig gammal, f.d. betad fjällbjörkskog</t>
+          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
         </is>
       </c>
       <c r="AN7" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1 substratenheter # grov ngt murken granlåga</t>
+          <t>1 substratenheter # rikligt på grenar och stam av mkt gammal gran</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16895951</v>
+        <v>16895955</v>
       </c>
       <c r="B8" t="n">
-        <v>77668</v>
+        <v>89406</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1466,38 +1466,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1249</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 400 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 500 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>461560.5512648276</v>
+        <v>461817.4838700104</v>
       </c>
       <c r="R8" t="n">
-        <v>7164760.27418993</v>
+        <v>7164851.487865292</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1 substratenheter # stammen på äldre sälg</t>
+          <t>1 substratenheter # grov ngt murken granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16895946</v>
+        <v>16895945</v>
       </c>
       <c r="B9" t="n">
         <v>77668</v>
@@ -1619,14 +1619,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 400 m NV Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 500 m NV Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>461019.1146955636</v>
+        <v>461022.9782998873</v>
       </c>
       <c r="R9" t="n">
-        <v>7164878.383126226</v>
+        <v>7164978.369098279</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1 substratenheter # rikligt på grenar och stam av mkt gammal gran</t>
+          <t>1 substratenheter # rikligt på grova grangrenar</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16895955</v>
+        <v>16895950</v>
       </c>
       <c r="B10" t="n">
-        <v>89406</v>
+        <v>76862</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1724,38 +1724,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>6443</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Sm.) A.Massal.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 500 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, 300 m NO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>461817.4838700104</v>
+        <v>461477.6555552008</v>
       </c>
       <c r="R10" t="n">
-        <v>7164851.487865292</v>
+        <v>7164766.04831084</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Storluckig gammal, f.d. betad fjällbjörkskog</t>
+          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
         </is>
       </c>
       <c r="AN10" t="n">
@@ -1819,9 +1819,10 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1 substratenheter # grov ngt murken granlåga</t>
-        </is>
-      </c>
+          <t>1 substratenheter # torrgrenar på gammal gran i granklon</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
@@ -1841,7 +1842,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16895965</v>
+        <v>16895959</v>
       </c>
       <c r="B11" t="n">
         <v>77668</v>
@@ -1877,14 +1878,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, ca 600 m SSO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, ca 1 km Ö Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>461542.5122580806</v>
+        <v>462630.2221353759</v>
       </c>
       <c r="R11" t="n">
-        <v>7163913.259641338</v>
+        <v>7164280.166798776</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1940,15 +1941,15 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Skiktad, gammal fjällgranskog</t>
+          <t>Storluckig, gammal fjällgranskog på myrholme</t>
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2 substratenheter # grenar av gammal torrgran</t>
+          <t>10 substratenheter # grenar och stammar av gammal klonbildande gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1970,7 +1971,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16895945</v>
+        <v>16895958</v>
       </c>
       <c r="B12" t="n">
         <v>77668</v>
@@ -2006,14 +2007,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 500 m NV Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, ca 1 km Ö Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>461022.9782998873</v>
+        <v>462429.0675681746</v>
       </c>
       <c r="R12" t="n">
-        <v>7164978.369098279</v>
+        <v>7164389.574527718</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2069,15 +2070,15 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
+          <t>Storluckig, gammal fjällgranskog på myrholme</t>
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1 substratenheter # rikligt på grova grangrenar</t>
+          <t>4 substratenheter # grenar och stammar av gammal klonbildande gran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2099,10 +2100,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16895950</v>
+        <v>16895965</v>
       </c>
       <c r="B13" t="n">
-        <v>76862</v>
+        <v>77668</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2111,38 +2112,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6443</v>
+        <v>1249</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kycklingvattnet, Ö om, 300 m NO Sätertjärnen, Jmt</t>
+          <t>Kycklingvattnet, Ö om, ca 600 m SSO Sätertjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>461477.6555552008</v>
+        <v>461542.5122580806</v>
       </c>
       <c r="R13" t="n">
-        <v>7164766.04831084</v>
+        <v>7163913.259641338</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2198,18 +2199,17 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Storluckig gammal, f.d. betad fjällgranskog</t>
+          <t>Skiktad, gammal fjällgranskog</t>
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1 substratenheter # torrgrenar på gammal gran i granklon</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr"/>
+          <t>2 substratenheter # grenar av gammal torrgran</t>
+        </is>
+      </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
